--- a/medicine/Psychotrope/2C-H/2C-H.xlsx
+++ b/medicine/Psychotrope/2C-H/2C-H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 2C-H est une phényléthylamine, découverte par Alexander Shulgin et décrite pour la première fois dans son livre PiHKAL[6].
+Le 2C-H est une phényléthylamine, découverte par Alexander Shulgin et décrite pour la première fois dans son livre PiHKAL.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-H fait partie de la famille de drogues 2C-x, des phényléthylamines hallucinogènes de synthèse découvertes par Alexander Shulgin. Contrairement à toutes les autres molécules de cette famille, il n'est substitué ni en position 3 ni en position 4 de son cycle aromatique.
-Il est donc tout naturellement un précurseur de plusieurs autres 2C-x, notamment le 2C-B, le 2C-C, le 2C-I et le 2C-N[6].
+Il est donc tout naturellement un précurseur de plusieurs autres 2C-x, notamment le 2C-B, le 2C-C, le 2C-I et le 2C-N.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Shulgin, le 2C-H serait détruit par l'organisme avant toute action pharmacologique[6], ce qui tend à être confirmé expérimentalement, étant donné la très faible activité du 2C-H comparée à d'autres molécules de sa famille[7].
-Cependant, des témoignages suggèrent qu'il pourrait être actif en prise sublinguale[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Shulgin, le 2C-H serait détruit par l'organisme avant toute action pharmacologique, ce qui tend à être confirmé expérimentalement, étant donné la très faible activité du 2C-H comparée à d'autres molécules de sa famille.
+Cependant, des témoignages suggèrent qu'il pourrait être actif en prise sublinguale.
 </t>
         </is>
       </c>
